--- a/src/test/resources/XLSXFiles/updaterow.xlsx
+++ b/src/test/resources/XLSXFiles/updaterow.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="5">
   <si>
     <t/>
   </si>
@@ -130,7 +130,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
@@ -145,6 +145,12 @@
       <c r="B1" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="C1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/src/test/resources/XLSXFiles/updaterow.xlsx
+++ b/src/test/resources/XLSXFiles/updaterow.xlsx
@@ -20,7 +20,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One</t>
+  </si>
   <si>
     <t/>
   </si>
@@ -49,6 +64,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -108,8 +124,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -133,23 +153,31 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>4</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>7</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/src/test/resources/XLSXFiles/updaterow.xlsx
+++ b/src/test/resources/XLSXFiles/updaterow.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t xml:space="preserve">A</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>NULLER</t>
   </si>
 </sst>
 </file>
@@ -179,6 +182,9 @@
       <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D2" t="s" s="0">
+        <v>10</v>
+      </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/src/test/resources/XLSXFiles/updaterow.xlsx
+++ b/src/test/resources/XLSXFiles/updaterow.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
   <si>
     <t xml:space="preserve">A</t>
   </si>
@@ -182,9 +182,6 @@
       <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>10</v>
-      </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/src/test/resources/XLSXFiles/updaterow.xlsx
+++ b/src/test/resources/XLSXFiles/updaterow.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="11">
   <si>
     <t xml:space="preserve">A</t>
   </si>

--- a/src/test/resources/XLSXFiles/updaterow.xlsx
+++ b/src/test/resources/XLSXFiles/updaterow.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="11">
   <si>
     <t xml:space="preserve">A</t>
   </si>

--- a/src/test/resources/XLSXFiles/updaterow.xlsx
+++ b/src/test/resources/XLSXFiles/updaterow.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="11">
   <si>
     <t xml:space="preserve">A</t>
   </si>

--- a/src/test/resources/XLSXFiles/updaterow.xlsx
+++ b/src/test/resources/XLSXFiles/updaterow.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="11">
   <si>
     <t xml:space="preserve">A</t>
   </si>

--- a/src/test/resources/XLSXFiles/updaterow.xlsx
+++ b/src/test/resources/XLSXFiles/updaterow.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="11">
   <si>
     <t xml:space="preserve">A</t>
   </si>

--- a/src/test/resources/XLSXFiles/updaterow.xlsx
+++ b/src/test/resources/XLSXFiles/updaterow.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="11">
   <si>
     <t xml:space="preserve">A</t>
   </si>

--- a/src/test/resources/XLSXFiles/updaterow.xlsx
+++ b/src/test/resources/XLSXFiles/updaterow.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="11">
   <si>
     <t xml:space="preserve">A</t>
   </si>

--- a/src/test/resources/XLSXFiles/updaterow.xlsx
+++ b/src/test/resources/XLSXFiles/updaterow.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="11">
   <si>
     <t xml:space="preserve">A</t>
   </si>
